--- a/generated_docs/WR_89700661_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89700661_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/24/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>709-1</t>
+          <t>709-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89700661_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89700661_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I142"/>
+  <dimension ref="A2:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25873.7</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>2056.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>2056.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,18 +969,18 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,20 +1024,20 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>879</v>
+        <v>2</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>2056.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>3</v>
+        <v>879</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,20 +1194,20 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>1591.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,20 +1228,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>3</v>
+        <v>680</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,18 +1309,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1339,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>870.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1373,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,155 +1411,155 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>11328.86</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="H38" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/22/2025)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
+      <c r="G42" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H40" s="8" t="inlineStr">
+      <c r="H42" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>ALB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
-        <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
-        </is>
-      </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>37.03</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>ALT-250-HFMSGL</t>
-        </is>
-      </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
-        <is>
-          <t>250W MultiVolt MH Fldlt,Slipfit,Gre,Puls</t>
-        </is>
-      </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>54.35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E43" s="9" t="inlineStr">
@@ -1568,11 +1568,11 @@
         </is>
       </c>
       <c r="F43" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D44" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E44" s="12" t="inlineStr">
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="F44" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>CON-4-AAA-2-P</t>
+          <t>ALT-250-HFMSGL</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1627,20 +1627,20 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,Two,Poly</t>
+          <t>250W MultiVolt MH Fldlt,Slipfit,Gre,Puls</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F45" s="10" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>58.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-SL</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,St Lt</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="F47" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>CON-4-AAA-2-P</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,20 +1729,20 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>CON,#4 AWG,Alum Alloy,Two,Poly</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1772,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-SL</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,St Lt</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1844,28 +1844,28 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,62 +1878,62 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>51.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>ALT-LED-FL-76-18L-SF-BK</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>18.8kL LED,7x6 Slipfit,cable-back ,Flood</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>76.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,32 +1942,32 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1980,18 +1980,18 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2014,28 +2014,28 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="F57" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2093,17 +2093,17 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>ALT-LED-FL-76-18L-SF-BK</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>18.8kL LED,7x6 Slipfit,cable-back ,Flood</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,11 +2282,11 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2316,11 +2316,11 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2331,17 +2331,17 @@
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAL-RS</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,All Alum,Res</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2501,17 +2501,17 @@
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B-S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,28 +2524,28 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2558,1370 +2558,1370 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="15" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAL-RS</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>SVC,#2 AWG,Trip,All Alum,Res</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>XFR-10-72-120-1B-S</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H73" s="16" t="n">
-        <v>3266.59</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="7" t="inlineStr">
+      <c r="H87" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/23/2025)</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="8" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B77" s="8" t="inlineStr">
+      <c r="B91" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C77" s="8" t="inlineStr">
+      <c r="C91" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D77" s="8" t="inlineStr">
+      <c r="D91" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E77" s="8" t="inlineStr">
+      <c r="E91" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="F91" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G77" s="8" t="inlineStr">
+      <c r="G91" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H77" s="8" t="inlineStr">
+      <c r="H91" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="9" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B78" s="9" t="inlineStr">
+      <c r="B92" s="9" t="inlineStr">
         <is>
           <t>ALT-LED-FL-76-18L-SF-BK</t>
         </is>
       </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
         <is>
           <t>18.8kL LED,7x6 Slipfit,cable-back ,Flood</t>
         </is>
       </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="inlineStr">
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-IL-C</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B79" s="12" t="inlineStr">
+      <c r="B96" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>158.7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="inlineStr">
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B80" s="9" t="inlineStr">
+      <c r="B99" s="12" t="inlineStr">
         <is>
           <t>POL-45-2</t>
         </is>
       </c>
-      <c r="C80" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="inlineStr">
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
         <is>
           <t>Pole,45ft,Class 2</t>
         </is>
       </c>
-      <c r="E80" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10" t="inlineStr"/>
-      <c r="H80" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="inlineStr">
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B81" s="12" t="inlineStr">
+      <c r="B100" s="9" t="inlineStr">
         <is>
           <t>ARM-3SF-GN-C</t>
         </is>
       </c>
-      <c r="C81" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="12" t="inlineStr">
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
         <is>
           <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
         </is>
       </c>
-      <c r="E81" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="n">
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G81" s="13" t="inlineStr"/>
-      <c r="H81" s="14" t="n">
-        <v>701.0599999999999</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="inlineStr">
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B82" s="9" t="inlineStr">
+      <c r="B101" s="12" t="inlineStr">
         <is>
           <t>BKT-ARML-A-C</t>
         </is>
       </c>
-      <c r="C82" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="9" t="inlineStr">
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
         <is>
           <t>BKT,Crossarm inLin,Alum,Corr</t>
         </is>
       </c>
-      <c r="E82" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="n">
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="G82" s="10" t="inlineStr"/>
-      <c r="H82" s="11" t="n">
-        <v>190.32</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="12" t="inlineStr">
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B83" s="12" t="inlineStr">
+      <c r="B102" s="9" t="inlineStr">
         <is>
           <t>CNC-SNB-2</t>
         </is>
       </c>
-      <c r="C83" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D83" s="12" t="inlineStr">
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
-      <c r="E83" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="13" t="n">
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G83" s="13" t="inlineStr"/>
-      <c r="H83" s="14" t="n">
-        <v>40.58</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="inlineStr">
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B84" s="9" t="inlineStr">
+      <c r="B103" s="12" t="inlineStr">
         <is>
           <t>CNC-SNB-40</t>
         </is>
       </c>
-      <c r="C84" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="9" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
-      <c r="E84" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="10" t="n">
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="10" t="inlineStr"/>
-      <c r="H84" s="11" t="n">
-        <v>40.58</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="inlineStr">
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B85" s="12" t="inlineStr">
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
         <is>
           <t>CND-S2O</t>
         </is>
       </c>
-      <c r="C85" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D85" s="12" t="inlineStr">
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
-      <c r="E85" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="13" t="n">
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G85" s="13" t="inlineStr"/>
-      <c r="H85" s="14" t="n">
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="inlineStr">
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B86" s="9" t="inlineStr">
+      <c r="B106" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C86" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D86" s="9" t="inlineStr">
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E86" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="10" t="n">
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G86" s="10" t="inlineStr"/>
-      <c r="H86" s="11" t="n">
-        <v>1717.5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="12" t="inlineStr">
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B87" s="12" t="inlineStr">
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C87" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D87" s="12" t="inlineStr">
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E87" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F87" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="13" t="inlineStr"/>
-      <c r="H87" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="inlineStr">
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B88" s="9" t="inlineStr">
+      <c r="B112" s="9" t="inlineStr">
         <is>
           <t>SAA-DI-10-C</t>
         </is>
       </c>
-      <c r="C88" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="inlineStr">
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
         <is>
           <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
-      <c r="E88" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10" t="inlineStr"/>
-      <c r="H88" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="inlineStr">
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B89" s="12" t="inlineStr">
+      <c r="B113" s="12" t="inlineStr">
         <is>
           <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
-      <c r="C89" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D89" s="12" t="inlineStr">
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
         <is>
           <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
-      <c r="E89" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="n">
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G89" s="13" t="inlineStr"/>
-      <c r="H89" s="14" t="n">
-        <v>187.26</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="15" t="inlineStr">
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H90" s="16" t="n">
-        <v>4207.83</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="inlineStr">
+      <c r="H114" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/24/2025)</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B94" s="8" t="inlineStr">
+      <c r="B118" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C94" s="8" t="inlineStr">
+      <c r="C118" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D94" s="8" t="inlineStr">
+      <c r="D118" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E94" s="8" t="inlineStr">
+      <c r="E118" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F94" s="8" t="inlineStr">
+      <c r="F118" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G94" s="8" t="inlineStr">
+      <c r="G118" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H94" s="8" t="inlineStr">
+      <c r="H118" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="inlineStr">
-        <is>
-          <t>ALB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C95" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
-        <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
-        </is>
-      </c>
-      <c r="E95" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="10" t="inlineStr"/>
-      <c r="H95" s="11" t="n">
-        <v>37.03</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B96" s="12" t="inlineStr">
-        <is>
-          <t>ALT-250-HFMSGL</t>
-        </is>
-      </c>
-      <c r="C96" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="12" t="inlineStr">
-        <is>
-          <t>250W MultiVolt MH Fldlt,Slipfit,Gre,Puls</t>
-        </is>
-      </c>
-      <c r="E96" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13" t="inlineStr"/>
-      <c r="H96" s="14" t="n">
-        <v>54.35</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C97" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E97" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" s="10" t="inlineStr"/>
-      <c r="H97" s="11" t="n">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B98" s="12" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>123.66</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>409</v>
-      </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>380.37</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B100" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>570.9</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-SL</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,St Lt</t>
-        </is>
-      </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B102" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C103" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E103" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="10" t="inlineStr"/>
-      <c r="H103" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B104" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DI-2-C</t>
-        </is>
-      </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D104" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
-        </is>
-      </c>
-      <c r="E104" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="13" t="inlineStr"/>
-      <c r="H104" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DI-4-C</t>
-        </is>
-      </c>
-      <c r="C105" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Dead End I Bolt,4,Corr</t>
-        </is>
-      </c>
-      <c r="E105" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="10" t="inlineStr"/>
-      <c r="H105" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B106" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C106" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E106" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="13" t="inlineStr"/>
-      <c r="H106" s="14" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E107" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="10" t="inlineStr"/>
-      <c r="H107" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B108" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C108" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E108" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="13" t="inlineStr"/>
-      <c r="H108" s="14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DI-10-C</t>
-        </is>
-      </c>
-      <c r="C109" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Dead End I Bolt,1/0,Corr</t>
-        </is>
-      </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="10" t="inlineStr"/>
-      <c r="H109" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B110" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C110" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E110" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="13" t="inlineStr"/>
-      <c r="H110" s="14" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F-C</t>
-        </is>
-      </c>
-      <c r="C111" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="inlineStr"/>
-      <c r="H111" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B112" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F-C</t>
-        </is>
-      </c>
-      <c r="C112" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E112" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="inlineStr"/>
-      <c r="H112" s="14" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
-        <is>
-          <t>BKT-ATX14-S</t>
-        </is>
-      </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
-        <is>
-          <t>BKT, Arr.Tank Mnt. Xfmr14kV,Steel</t>
-        </is>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B114" s="12" t="inlineStr">
-        <is>
-          <t>BKT-ATX14-S-C</t>
-        </is>
-      </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
-        <is>
-          <t>BKT, Arr.Tank Mnt. Xfmr14kV,Steel,Corr</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>95.16</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="inlineStr">
-        <is>
-          <t>BKT-CMX-50-A</t>
-        </is>
-      </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>49.01</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B116" s="12" t="inlineStr">
-        <is>
-          <t>BKT-CMX-50-A</t>
-        </is>
-      </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>26.73</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="inlineStr">
-        <is>
-          <t>BKT-IP8-F-C</t>
-        </is>
-      </c>
-      <c r="C117" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Insulator Post 8in,Fbrgls,Corrosive</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B118" s="12" t="inlineStr">
-        <is>
-          <t>BKT-IP8-F-C</t>
-        </is>
-      </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Insulator Post 8in,Fbrgls,Corrosive</t>
-        </is>
-      </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>17.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B119" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C119" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D119" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E119" s="9" t="inlineStr">
@@ -3930,32 +3930,32 @@
         </is>
       </c>
       <c r="F119" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="10" t="inlineStr"/>
       <c r="H119" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B120" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ALT-250-HFMSGL</t>
         </is>
       </c>
       <c r="C120" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D120" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>250W MultiVolt MH Fldlt,Slipfit,Gre,Puls</t>
         </is>
       </c>
       <c r="E120" s="12" t="inlineStr">
@@ -3964,22 +3964,22 @@
         </is>
       </c>
       <c r="F120" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" s="13" t="inlineStr"/>
       <c r="H120" s="14" t="n">
-        <v>82.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="D121" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E121" s="9" t="inlineStr">
@@ -3998,32 +3998,32 @@
         </is>
       </c>
       <c r="F121" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121" s="10" t="inlineStr"/>
       <c r="H121" s="11" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B122" s="12" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>ARM-3SF-GN-C</t>
         </is>
       </c>
       <c r="C122" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
         </is>
       </c>
       <c r="E122" s="12" t="inlineStr">
@@ -4032,56 +4032,56 @@
         </is>
       </c>
       <c r="F122" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="13" t="inlineStr"/>
       <c r="H122" s="14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F123" s="10" t="n">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B124" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E124" s="12" t="inlineStr">
@@ -4100,32 +4100,32 @@
         </is>
       </c>
       <c r="F124" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G124" s="13" t="inlineStr"/>
       <c r="H124" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GND-CR-SL</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GND,Cu Clad Rod,St Lt</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4138,28 +4138,28 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B126" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E126" s="12" t="inlineStr">
@@ -4168,22 +4168,22 @@
         </is>
       </c>
       <c r="F126" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" s="13" t="inlineStr"/>
       <c r="H126" s="14" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D127" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E127" s="9" t="inlineStr">
@@ -4202,32 +4202,32 @@
         </is>
       </c>
       <c r="F127" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127" s="10" t="inlineStr"/>
       <c r="H127" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B128" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C128" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E128" s="12" t="inlineStr">
@@ -4240,28 +4240,28 @@
       </c>
       <c r="G128" s="13" t="inlineStr"/>
       <c r="H128" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B129" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D129" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E129" s="9" t="inlineStr">
@@ -4274,28 +4274,28 @@
       </c>
       <c r="G129" s="10" t="inlineStr"/>
       <c r="H129" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B130" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C130" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E130" s="12" t="inlineStr">
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="F130" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G130" s="13" t="inlineStr"/>
       <c r="H130" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B131" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C131" s="9" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D131" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E131" s="9" t="inlineStr">
@@ -4338,32 +4338,32 @@
         </is>
       </c>
       <c r="F131" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G131" s="10" t="inlineStr"/>
       <c r="H131" s="11" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B132" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120CUT-1B-S</t>
+          <t>SAA-DI-2-C</t>
         </is>
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120 CUTOVER,1BG,SS</t>
+          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
         </is>
       </c>
       <c r="E132" s="12" t="inlineStr">
@@ -4372,22 +4372,22 @@
         </is>
       </c>
       <c r="F132" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G132" s="13" t="inlineStr"/>
       <c r="H132" s="14" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B133" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>SAA-DI-4-C</t>
         </is>
       </c>
       <c r="C133" s="9" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D133" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>SAA,Dead End I Bolt,4,Corr</t>
         </is>
       </c>
       <c r="E133" s="9" t="inlineStr">
@@ -4406,22 +4406,22 @@
         </is>
       </c>
       <c r="F133" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" s="10" t="inlineStr"/>
       <c r="H133" s="11" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B134" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C134" s="12" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D134" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E134" s="12" t="inlineStr">
@@ -4444,28 +4444,28 @@
       </c>
       <c r="G134" s="13" t="inlineStr"/>
       <c r="H134" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B135" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-3SF-GN-C</t>
         </is>
       </c>
       <c r="C135" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D135" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
         </is>
       </c>
       <c r="E135" s="9" t="inlineStr">
@@ -4474,32 +4474,32 @@
         </is>
       </c>
       <c r="F135" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135" s="10" t="inlineStr"/>
       <c r="H135" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B136" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C136" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D136" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E136" s="12" t="inlineStr">
@@ -4512,28 +4512,28 @@
       </c>
       <c r="G136" s="13" t="inlineStr"/>
       <c r="H136" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B137" s="9" t="inlineStr">
         <is>
-          <t>POL-45-4</t>
+          <t>GYF-38-78W-IL-C</t>
         </is>
       </c>
       <c r="C137" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D137" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 4</t>
+          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
         </is>
       </c>
       <c r="E137" s="9" t="inlineStr">
@@ -4546,28 +4546,28 @@
       </c>
       <c r="G137" s="10" t="inlineStr"/>
       <c r="H137" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B138" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C138" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E138" s="12" t="inlineStr">
@@ -4580,18 +4580,18 @@
       </c>
       <c r="G138" s="13" t="inlineStr"/>
       <c r="H138" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>ARM-3SF-GN-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D139" s="9" t="inlineStr">
         <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E139" s="9" t="inlineStr">
@@ -4610,22 +4610,22 @@
         </is>
       </c>
       <c r="F139" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" s="10" t="inlineStr"/>
       <c r="H139" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B140" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-DI-10-C</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D140" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
       <c r="E140" s="12" t="inlineStr">
@@ -4648,28 +4648,28 @@
       </c>
       <c r="G140" s="13" t="inlineStr"/>
       <c r="H140" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B141" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C141" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D141" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E141" s="9" t="inlineStr">
@@ -4678,42 +4678,1504 @@
         </is>
       </c>
       <c r="F141" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G141" s="10" t="inlineStr"/>
       <c r="H141" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="15" t="inlineStr">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F-C</t>
+        </is>
+      </c>
+      <c r="C142" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="13" t="inlineStr"/>
+      <c r="H142" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F-C</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="inlineStr">
+        <is>
+          <t>BKT-ATX14-S</t>
+        </is>
+      </c>
+      <c r="C144" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>BKT, Arr.Tank Mnt. Xfmr14kV,Steel</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" s="13" t="inlineStr"/>
+      <c r="H144" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>BKT-ATX14-S-C</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="inlineStr">
+        <is>
+          <t>BKT, Arr.Tank Mnt. Xfmr14kV,Steel,Corr</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B146" s="12" t="inlineStr">
+        <is>
+          <t>BKT-CMX-50-A</t>
+        </is>
+      </c>
+      <c r="C146" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+        </is>
+      </c>
+      <c r="E146" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13" t="inlineStr"/>
+      <c r="H146" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>BKT-CMX-50-A</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="inlineStr">
+        <is>
+          <t>BKT-IP8-F-C</t>
+        </is>
+      </c>
+      <c r="C148" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Insulator Post 8in,Fbrgls,Corrosive</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13" t="inlineStr"/>
+      <c r="H148" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>BKT-IP8-F-C</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Insulator Post 8in,Fbrgls,Corrosive</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B154" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C154" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E154" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" s="13" t="inlineStr"/>
+      <c r="H154" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C155" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B156" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C156" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E156" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13" t="inlineStr"/>
+      <c r="H156" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B157" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C157" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D157" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B158" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C158" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D158" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E158" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" s="13" t="inlineStr"/>
+      <c r="H158" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B160" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C160" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="13" t="inlineStr"/>
+      <c r="H160" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B161" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C161" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F161" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G161" s="10" t="inlineStr"/>
+      <c r="H161" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B162" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C162" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D162" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E162" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G162" s="13" t="inlineStr"/>
+      <c r="H162" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B163" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C163" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="10" t="inlineStr"/>
+      <c r="H163" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B164" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C164" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D164" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E164" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="13" t="inlineStr"/>
+      <c r="H164" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B165" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C165" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D165" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10" t="inlineStr"/>
+      <c r="H165" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B166" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C166" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D166" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G166" s="13" t="inlineStr"/>
+      <c r="H166" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B167" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-CUH-15</t>
+        </is>
+      </c>
+      <c r="C167" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D167" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+        </is>
+      </c>
+      <c r="E167" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G167" s="10" t="inlineStr"/>
+      <c r="H167" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B168" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-CUH-15</t>
+        </is>
+      </c>
+      <c r="C168" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+        </is>
+      </c>
+      <c r="E168" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" s="13" t="inlineStr"/>
+      <c r="H168" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C169" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E169" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G169" s="10" t="inlineStr"/>
+      <c r="H169" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B170" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C170" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G170" s="13" t="inlineStr"/>
+      <c r="H170" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120CUT-1B-S</t>
+        </is>
+      </c>
+      <c r="C171" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120 CUTOVER,1BG,SS</t>
+        </is>
+      </c>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" s="10" t="inlineStr"/>
+      <c r="H171" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E172" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" s="13" t="inlineStr"/>
+      <c r="H172" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B173" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C173" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E173" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="10" t="inlineStr"/>
+      <c r="H173" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B174" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E174" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="13" t="inlineStr"/>
+      <c r="H174" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B175" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D175" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" s="10" t="inlineStr"/>
+      <c r="H175" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B176" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C176" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D176" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E176" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="13" t="inlineStr"/>
+      <c r="H176" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-4</t>
+        </is>
+      </c>
+      <c r="C177" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="10" t="inlineStr"/>
+      <c r="H177" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E178" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="13" t="inlineStr"/>
+      <c r="H178" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G179" s="10" t="inlineStr"/>
+      <c r="H179" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="13" t="inlineStr"/>
+      <c r="H180" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C181" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" s="10" t="inlineStr"/>
+      <c r="H181" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" s="13" t="inlineStr"/>
+      <c r="H182" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C183" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="10" t="inlineStr"/>
+      <c r="H183" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B184" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C184" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D184" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E184" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G184" s="13" t="inlineStr"/>
+      <c r="H184" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H142" s="16" t="n">
-        <v>7070.419999999999</v>
+      <c r="H185" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A185:G185"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A39:H39"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A117:H117"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A73:G73"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
